--- a/project1/analysis/Python.xlsx
+++ b/project1/analysis/Python.xlsx
@@ -10,7 +10,7 @@
     <sheet name="patient visits" sheetId="1" r:id="rId1"/>
     <sheet name="diseases" sheetId="2" r:id="rId2"/>
     <sheet name="visits to clinics" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="visits per patient per year" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2828,7 +2828,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
